--- a/testdata/openemr_data.xlsx
+++ b/testdata/openemr_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automation_workspace\HealthRecordBDD\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAECAB91-F65B-4064-889A-587DF695E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CBC0FA-EFC5-4087-BE6E-061A523AE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E01E024F-2392-4CFB-80CF-D97CA49FE1EB}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
